--- a/DA/src/main/resources/excel-templates/movableCheck-template.xlsx
+++ b/DA/src/main/resources/excel-templates/movableCheck-template.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -468,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>

--- a/DA/src/main/resources/excel-templates/movableCheck-template.xlsx
+++ b/DA/src/main/resources/excel-templates/movableCheck-template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>汇路类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,78 @@
   </si>
   <si>
     <t>收款人手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付方账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权使用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收方信息填写类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收方账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收方户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{cardNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{amountLimit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{effectiveDates}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{invalidDates}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{checkAuthority}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{authorizedUser}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{receiverType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{inCardNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{inCardName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -136,6 +208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,67 +507,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="24.375" customWidth="1"/>
+    <col min="13" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="14" width="42" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" ht="21" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1">
-      <c r="F3" t="s">
+    <row r="3" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:15">
+      <c r="M6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
